--- a/Makro Indikator AI.xlsx
+++ b/Makro Indikator AI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER ID\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER ID\Downloads\LATSAR\Data-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561B7EA4-C925-43AE-8CAA-29D0B6A419BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170C26CD-D052-4AB0-9336-44BB36DA0EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{DBEEC0F4-0C59-4FE7-997E-EFB3A99E35BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{DBEEC0F4-0C59-4FE7-997E-EFB3A99E35BF}"/>
   </bookViews>
   <sheets>
     <sheet name="target_full_year" sheetId="2" r:id="rId1"/>
@@ -200,10 +200,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -548,7 +548,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE8EECD-3531-4C37-A519-EFD28AFA05A2}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -655,7 +655,9 @@
       <c r="H2" s="12">
         <v>5.04</v>
       </c>
-      <c r="I2" s="11"/>
+      <c r="I2" s="11">
+        <v>5.39</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -671,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B939093-6DAE-4E13-883D-103575DD4B6F}">
   <dimension ref="A1:L289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="L242" sqref="L242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9844,8 +9846,12 @@
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A242" s="3"/>
-      <c r="B242" s="4"/>
+      <c r="A242" s="3">
+        <v>46023</v>
+      </c>
+      <c r="B242" s="4">
+        <v>50.6</v>
+      </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
@@ -9853,9 +9859,15 @@
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
-      <c r="J242" s="5"/>
-      <c r="K242" s="4"/>
-      <c r="L242" s="4"/>
+      <c r="J242" s="5">
+        <v>3.55</v>
+      </c>
+      <c r="K242" s="4">
+        <v>16769</v>
+      </c>
+      <c r="L242" s="4">
+        <v>4.75</v>
+      </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" s="3"/>
